--- a/artfynd/A 13079-2020.xlsx
+++ b/artfynd/A 13079-2020.xlsx
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102641796</v>
+        <v>102627407</v>
       </c>
       <c r="B13" t="n">
-        <v>56540</v>
+        <v>77258</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1957,37 +1957,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567665.9595758857</v>
+        <v>567257.7989636681</v>
       </c>
       <c r="R13" t="n">
-        <v>6947145.491238644</v>
+        <v>6947194.194780107</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2029,11 +2029,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Lockläte</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2042,26 +2037,41 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102627407</v>
+        <v>102627405</v>
       </c>
       <c r="B14" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,25 +2080,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2098,10 +2108,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567257.7989636681</v>
+        <v>567248.5815995829</v>
       </c>
       <c r="R14" t="n">
-        <v>6947194.194780107</v>
+        <v>6947194.46720103</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2154,21 +2164,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2185,10 +2180,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102641798</v>
+        <v>102627402</v>
       </c>
       <c r="B15" t="n">
-        <v>78570</v>
+        <v>78025</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2201,37 +2196,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>1352</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Småflikig brosklav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Ramalina sinensis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Jatta</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567730.9900805965</v>
+        <v>567215.6501171837</v>
       </c>
       <c r="R15" t="n">
-        <v>6947141.303575898</v>
+        <v>6947205.755791654</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2255,7 +2250,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2265,7 +2260,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2281,23 +2276,38 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102641800</v>
+        <v>102627403</v>
       </c>
       <c r="B16" t="n">
         <v>78569</v>
@@ -2333,17 +2343,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567711.7366697103</v>
+        <v>567218.3283774997</v>
       </c>
       <c r="R16" t="n">
-        <v>6947159.307005769</v>
+        <v>6947209.94966076</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2367,7 +2377,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2377,7 +2387,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2393,26 +2403,41 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102627405</v>
+        <v>102627408</v>
       </c>
       <c r="B17" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,25 +2446,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2449,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567248.5815995829</v>
+        <v>567331.3881330554</v>
       </c>
       <c r="R17" t="n">
-        <v>6947194.46720103</v>
+        <v>6947199.372277578</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,6 +2530,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2521,10 +2561,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102627402</v>
+        <v>102627406</v>
       </c>
       <c r="B18" t="n">
-        <v>78025</v>
+        <v>88476</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,21 +2577,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1352</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Småflikig brosklav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ramalina sinensis</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jatta</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2561,10 +2601,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567215.6501171837</v>
+        <v>567247.6607985151</v>
       </c>
       <c r="R18" t="n">
-        <v>6947205.755791654</v>
+        <v>6947194.448469881</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2620,17 +2660,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2648,10 +2688,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>102641804</v>
+        <v>102627404</v>
       </c>
       <c r="B19" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2660,41 +2700,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567663.8544631224</v>
+        <v>567221.6353032694</v>
       </c>
       <c r="R19" t="n">
-        <v>6947158.326620415</v>
+        <v>6947205.877490859</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2718,7 +2758,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2728,7 +2768,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2744,30 +2784,45 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>102641799</v>
+        <v>102627400</v>
       </c>
       <c r="B20" t="n">
-        <v>78569</v>
+        <v>56411</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2776,37 +2831,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>567730.9900805965</v>
+        <v>567120.8355828859</v>
       </c>
       <c r="R20" t="n">
-        <v>6947141.303575898</v>
+        <v>6947270.519187937</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2830,7 +2890,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2840,7 +2900,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2860,22 +2920,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>102641807</v>
+        <v>102641796</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2888,21 +2948,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2912,10 +2972,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>567708.4537936535</v>
+        <v>567665.9595758857</v>
       </c>
       <c r="R21" t="n">
-        <v>6947027.233043889</v>
+        <v>6947145.491238644</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2958,6 +3018,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Lockläte</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2984,10 +3049,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>102627403</v>
+        <v>102641798</v>
       </c>
       <c r="B22" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3000,37 +3065,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>567218.3283774997</v>
+        <v>567730.9900805965</v>
       </c>
       <c r="R22" t="n">
-        <v>6947209.94966076</v>
+        <v>6947141.303575898</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3054,7 +3119,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3064,7 +3129,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3080,41 +3145,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102627408</v>
+        <v>102641800</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3127,37 +3177,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>567331.3881330554</v>
+        <v>567711.7366697103</v>
       </c>
       <c r="R23" t="n">
-        <v>6947199.372277578</v>
+        <v>6947159.307005769</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3181,7 +3231,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3191,7 +3241,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3207,41 +3257,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102641797</v>
+        <v>102641804</v>
       </c>
       <c r="B24" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3285,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3313,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>567569.4335539405</v>
+        <v>567663.8544631224</v>
       </c>
       <c r="R24" t="n">
-        <v>6947203.309356547</v>
+        <v>6947158.326620415</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3324,11 +3359,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Sång och lockläte</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3355,10 +3385,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102627406</v>
+        <v>102641799</v>
       </c>
       <c r="B25" t="n">
-        <v>88476</v>
+        <v>78569</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3371,37 +3401,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>567247.6607985151</v>
+        <v>567730.9900805965</v>
       </c>
       <c r="R25" t="n">
-        <v>6947194.448469881</v>
+        <v>6947141.303575898</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3425,7 +3455,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3435,7 +3465,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3451,41 +3481,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102641795</v>
+        <v>102641807</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3498,21 +3513,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3522,10 +3537,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>567674.3534303163</v>
+        <v>567708.4537936535</v>
       </c>
       <c r="R26" t="n">
-        <v>6947050.452816573</v>
+        <v>6947027.233043889</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3594,10 +3609,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102627404</v>
+        <v>102641797</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>56540</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3610,37 +3625,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>567221.6353032694</v>
+        <v>567569.4335539405</v>
       </c>
       <c r="R27" t="n">
-        <v>6947205.877490859</v>
+        <v>6947203.309356547</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3664,7 +3679,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3674,7 +3689,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3682,6 +3697,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Sång och lockläte</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3690,41 +3710,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102641805</v>
+        <v>102641795</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3733,25 +3738,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3761,10 +3766,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>567637.3771755247</v>
+        <v>567674.3534303163</v>
       </c>
       <c r="R28" t="n">
-        <v>6947124.208691143</v>
+        <v>6947050.452816573</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3833,7 +3838,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102641806</v>
+        <v>102641805</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -3873,10 +3878,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>567642.3570287534</v>
+        <v>567637.3771755247</v>
       </c>
       <c r="R29" t="n">
-        <v>6947128.450118275</v>
+        <v>6947124.208691143</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3945,10 +3950,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103648268</v>
+        <v>102641806</v>
       </c>
       <c r="B30" t="n">
-        <v>88901</v>
+        <v>96334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3961,40 +3966,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2051</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Leringstjärnen, Torp, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>567572.5248589497</v>
+        <v>567642.3570287534</v>
       </c>
       <c r="R30" t="n">
-        <v>6947187.27468768</v>
+        <v>6947128.450118275</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4018,7 +4020,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4028,7 +4030,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4042,38 +4044,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Tallskog på blockmark</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristin Lindström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristin Lindström</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>103809820</v>
+        <v>103648268</v>
       </c>
       <c r="B31" t="n">
-        <v>78569</v>
+        <v>88901</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4082,41 +4074,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>2051</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Mpd</t>
+          <t>Abborrsjöberget, Leringstjärnen, Torp, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>567686.0984595813</v>
+        <v>567572.5248589497</v>
       </c>
       <c r="R31" t="n">
-        <v>6947061.7322679</v>
+        <v>6947187.27468768</v>
       </c>
       <c r="S31" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4164,8 +4159,14 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Tallskog på blockmark</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4186,14 +4187,14 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102627400</v>
+        <v>103809820</v>
       </c>
       <c r="B32" t="n">
-        <v>56411</v>
+        <v>78569</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4202,42 +4203,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Abborrsjöberget, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>567120.8355828859</v>
+        <v>567686.0984595813</v>
       </c>
       <c r="R32" t="n">
-        <v>6947270.519187937</v>
+        <v>6947061.7322679</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4261,7 +4257,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4271,7 +4267,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4291,15 +4287,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Kristin Lindström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY32" t="inlineStr"/>
+          <t>Kristin Lindström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 13079-2020.xlsx
+++ b/artfynd/A 13079-2020.xlsx
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102627407</v>
+        <v>102641796</v>
       </c>
       <c r="B13" t="n">
-        <v>77258</v>
+        <v>56540</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1957,37 +1957,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567257.7989636681</v>
+        <v>567665.9595758857</v>
       </c>
       <c r="R13" t="n">
-        <v>6947194.194780107</v>
+        <v>6947145.491238644</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2029,6 +2029,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Lockläte</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2037,41 +2042,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102627405</v>
+        <v>102627407</v>
       </c>
       <c r="B14" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,25 +2070,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2108,10 +2098,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567248.5815995829</v>
+        <v>567257.7989636681</v>
       </c>
       <c r="R14" t="n">
-        <v>6947194.46720103</v>
+        <v>6947194.194780107</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2164,6 +2154,21 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2180,10 +2185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102627402</v>
+        <v>102641798</v>
       </c>
       <c r="B15" t="n">
-        <v>78025</v>
+        <v>78570</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2196,37 +2201,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1352</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Småflikig brosklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ramalina sinensis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jatta</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567215.6501171837</v>
+        <v>567730.9900805965</v>
       </c>
       <c r="R15" t="n">
-        <v>6947205.755791654</v>
+        <v>6947141.303575898</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2250,7 +2255,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2260,7 +2265,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2276,38 +2281,23 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102627403</v>
+        <v>102641800</v>
       </c>
       <c r="B16" t="n">
         <v>78569</v>
@@ -2343,17 +2333,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567218.3283774997</v>
+        <v>567711.7366697103</v>
       </c>
       <c r="R16" t="n">
-        <v>6947209.94966076</v>
+        <v>6947159.307005769</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2377,7 +2367,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2387,7 +2377,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2403,41 +2393,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102627408</v>
+        <v>102627405</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,25 +2421,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2449,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567331.3881330554</v>
+        <v>567248.5815995829</v>
       </c>
       <c r="R17" t="n">
-        <v>6947199.372277578</v>
+        <v>6947194.46720103</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2530,21 +2505,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2561,10 +2521,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102627406</v>
+        <v>102627402</v>
       </c>
       <c r="B18" t="n">
-        <v>88476</v>
+        <v>78025</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2577,21 +2537,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1962</v>
+        <v>1352</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Småflikig brosklav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Ramalina sinensis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Jatta</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2601,10 +2561,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567247.6607985151</v>
+        <v>567215.6501171837</v>
       </c>
       <c r="R18" t="n">
-        <v>6947194.448469881</v>
+        <v>6947205.755791654</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2660,17 +2620,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2688,10 +2648,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>102627404</v>
+        <v>102641804</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2700,41 +2660,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567221.6353032694</v>
+        <v>567663.8544631224</v>
       </c>
       <c r="R19" t="n">
-        <v>6947205.877490859</v>
+        <v>6947158.326620415</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2758,7 +2718,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2768,7 +2728,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2784,45 +2744,30 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>102627400</v>
+        <v>102641799</v>
       </c>
       <c r="B20" t="n">
-        <v>56411</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2831,42 +2776,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Ånge, Mpd</t>
+          <t>Ekerbergskroken, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>567120.8355828859</v>
+        <v>567730.9900805965</v>
       </c>
       <c r="R20" t="n">
-        <v>6947270.519187937</v>
+        <v>6947141.303575898</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2890,7 +2830,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2900,7 +2840,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2920,22 +2860,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Carl Jansson, Erland Lindblad</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>102641796</v>
+        <v>102641807</v>
       </c>
       <c r="B21" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2948,21 +2888,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2972,10 +2912,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>567665.9595758857</v>
+        <v>567708.4537936535</v>
       </c>
       <c r="R21" t="n">
-        <v>6947145.491238644</v>
+        <v>6947027.233043889</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3018,11 +2958,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Lockläte</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3049,10 +2984,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>102641798</v>
+        <v>102627403</v>
       </c>
       <c r="B22" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3065,37 +3000,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>567730.9900805965</v>
+        <v>567218.3283774997</v>
       </c>
       <c r="R22" t="n">
-        <v>6947141.303575898</v>
+        <v>6947209.94966076</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3119,7 +3054,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3129,7 +3064,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3145,26 +3080,41 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102641800</v>
+        <v>102627408</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3177,37 +3127,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>567711.7366697103</v>
+        <v>567331.3881330554</v>
       </c>
       <c r="R23" t="n">
-        <v>6947159.307005769</v>
+        <v>6947199.372277578</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3231,7 +3181,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3241,7 +3191,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3257,26 +3207,41 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102641804</v>
+        <v>102641797</v>
       </c>
       <c r="B24" t="n">
-        <v>96334</v>
+        <v>56540</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3285,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3313,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>567663.8544631224</v>
+        <v>567569.4335539405</v>
       </c>
       <c r="R24" t="n">
-        <v>6947158.326620415</v>
+        <v>6947203.309356547</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3359,6 +3324,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Sång och lockläte</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3385,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102641799</v>
+        <v>102627406</v>
       </c>
       <c r="B25" t="n">
-        <v>78569</v>
+        <v>88476</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3401,37 +3371,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>567730.9900805965</v>
+        <v>567247.6607985151</v>
       </c>
       <c r="R25" t="n">
-        <v>6947141.303575898</v>
+        <v>6947194.448469881</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3455,7 +3425,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3465,7 +3435,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3481,26 +3451,41 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102641807</v>
+        <v>102641795</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3513,21 +3498,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3537,10 +3522,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>567708.4537936535</v>
+        <v>567674.3534303163</v>
       </c>
       <c r="R26" t="n">
-        <v>6947027.233043889</v>
+        <v>6947050.452816573</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3609,10 +3594,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102641797</v>
+        <v>102627404</v>
       </c>
       <c r="B27" t="n">
-        <v>56540</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3625,37 +3610,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>567569.4335539405</v>
+        <v>567221.6353032694</v>
       </c>
       <c r="R27" t="n">
-        <v>6947203.309356547</v>
+        <v>6947205.877490859</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3679,7 +3664,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3689,7 +3674,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3697,11 +3682,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Sång och lockläte</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3710,26 +3690,41 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Carl Jansson, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102641795</v>
+        <v>102641805</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3738,25 +3733,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3766,10 +3761,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>567674.3534303163</v>
+        <v>567637.3771755247</v>
       </c>
       <c r="R28" t="n">
-        <v>6947050.452816573</v>
+        <v>6947124.208691143</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3838,7 +3833,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102641805</v>
+        <v>102641806</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -3878,10 +3873,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>567637.3771755247</v>
+        <v>567642.3570287534</v>
       </c>
       <c r="R29" t="n">
-        <v>6947124.208691143</v>
+        <v>6947128.450118275</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3950,10 +3945,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102641806</v>
+        <v>103648268</v>
       </c>
       <c r="B30" t="n">
-        <v>96334</v>
+        <v>88901</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3966,37 +3961,40 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>2051</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Ekerbergskroken, Mpd</t>
+          <t>Abborrsjöberget, Leringstjärnen, Torp, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>567642.3570287534</v>
+        <v>567572.5248589497</v>
       </c>
       <c r="R30" t="n">
-        <v>6947128.450118275</v>
+        <v>6947187.27468768</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4020,7 +4018,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4030,7 +4028,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4044,28 +4042,38 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Tallskog på blockmark</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Kristin Lindström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr"/>
+          <t>Kristin Lindström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>103648268</v>
+        <v>103809820</v>
       </c>
       <c r="B31" t="n">
-        <v>88901</v>
+        <v>78569</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4074,44 +4082,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2051</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Leringstjärnen, Torp, Mpd</t>
+          <t>Abborrsjöberget, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>567572.5248589497</v>
+        <v>567686.0984595813</v>
       </c>
       <c r="R31" t="n">
-        <v>6947187.27468768</v>
+        <v>6947061.7322679</v>
       </c>
       <c r="S31" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4159,14 +4164,8 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Tallskog på blockmark</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4187,14 +4186,14 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>103809820</v>
+        <v>102627400</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>56411</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4203,37 +4202,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Abborrsjöberget, Mpd</t>
+          <t>Abborrsjöberget, Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>567686.0984595813</v>
+        <v>567120.8355828859</v>
       </c>
       <c r="R32" t="n">
-        <v>6947061.7322679</v>
+        <v>6947270.519187937</v>
       </c>
       <c r="S32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4257,7 +4261,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4267,7 +4271,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4287,19 +4291,15 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristin Lindström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristin Lindström</t>
-        </is>
-      </c>
-      <c r="AY32" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Carl Jansson, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
